--- a/Graphs/States_GDP.xlsx
+++ b/Graphs/States_GDP.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25443ab6e74433de/Pessoal/Artigo/Economic History Review/Code/Graphs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{58675F12-D6AA-43AB-B069-5E61B787D6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C2BEA29-D624-4384-83F0-61E1AA23BB4D}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{58675F12-D6AA-43AB-B069-5E61B787D6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3AE43DC-739B-474F-A040-2D00493D5DB6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4283B93-E05F-4347-824F-D5FCA4D9E30E}"/>
   </bookViews>
@@ -19,7 +14,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Séries!$A$1:$BL$28</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -930,11 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C44E80-6726-4A3B-9BA7-1B1BCDCF9EDD}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1146,7 +1153,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1277,7 +1284,7 @@
         <v>21374440.009</v>
       </c>
     </row>
-    <row r="3" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -1471,7 +1478,7 @@
         <v>76265620.285999998</v>
       </c>
     </row>
-    <row r="4" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1665,7 +1672,7 @@
         <v>131531037.76199999</v>
       </c>
     </row>
-    <row r="5" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -1796,7 +1803,7 @@
         <v>20099850.517000001</v>
       </c>
     </row>
-    <row r="6" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -1990,7 +1997,7 @@
         <v>352617851.76899999</v>
       </c>
     </row>
-    <row r="7" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -2184,7 +2191,7 @@
         <v>194884801.54699999</v>
       </c>
     </row>
-    <row r="8" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -2315,7 +2322,7 @@
         <v>286943782.02700001</v>
       </c>
     </row>
-    <row r="9" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -2509,7 +2516,7 @@
         <v>186336504.77000001</v>
       </c>
     </row>
-    <row r="10" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -2703,7 +2710,7 @@
         <v>269627873.89999998</v>
       </c>
     </row>
-    <row r="11" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -2897,7 +2904,7 @@
         <v>124980719.954</v>
       </c>
     </row>
-    <row r="12" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -3413,7 +3420,7 @@
         <v>233390202.64500001</v>
       </c>
     </row>
-    <row r="15" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -3607,7 +3614,7 @@
         <v>262904979.116</v>
       </c>
     </row>
-    <row r="16" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -3801,7 +3808,7 @@
         <v>77470331.033000007</v>
       </c>
     </row>
-    <row r="17" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -3995,7 +4002,7 @@
         <v>220813522.472</v>
       </c>
     </row>
-    <row r="18" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -4189,7 +4196,7 @@
         <v>64028302.817000002</v>
       </c>
     </row>
-    <row r="19" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -4383,7 +4390,7 @@
         <v>549973061.87300003</v>
       </c>
     </row>
-    <row r="20" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>118</v>
       </c>
@@ -4577,7 +4584,7 @@
         <v>949300770.39499998</v>
       </c>
     </row>
-    <row r="21" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>121</v>
       </c>
@@ -4771,7 +4778,7 @@
         <v>80180733.092999995</v>
       </c>
     </row>
-    <row r="22" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>124</v>
       </c>
@@ -4902,7 +4909,7 @@
         <v>58170095.726000004</v>
       </c>
     </row>
-    <row r="23" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>127</v>
       </c>
@@ -5033,7 +5040,7 @@
         <v>18202579.489999998</v>
       </c>
     </row>
-    <row r="24" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -5227,7 +5234,7 @@
         <v>581283677.31200004</v>
       </c>
     </row>
-    <row r="25" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>133</v>
       </c>
@@ -5421,7 +5428,7 @@
         <v>428570888.75199997</v>
       </c>
     </row>
-    <row r="26" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -5615,7 +5622,7 @@
         <v>51861396.886</v>
       </c>
     </row>
-    <row r="27" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -5809,7 +5816,7 @@
         <v>2719751231.375</v>
       </c>
     </row>
-    <row r="28" spans="1:64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -5920,14 +5927,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BL28" xr:uid="{21C44E80-6726-4A3B-9BA7-1B1BCDCF9EDD}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Mato Grosso"/>
-        <filter val="Mato Grosso do Sul"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
